--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -531,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.208660046356138</v>
+        <v>0.2341203333333333</v>
       </c>
       <c r="H2">
-        <v>0.208660046356138</v>
+        <v>0.702361</v>
       </c>
       <c r="I2">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="J2">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N2">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O2">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P2">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q2">
-        <v>10.6326222678034</v>
+        <v>21.67774942687322</v>
       </c>
       <c r="R2">
-        <v>10.6326222678034</v>
+        <v>195.099744841859</v>
       </c>
       <c r="S2">
-        <v>0.04302860709747557</v>
+        <v>0.06306500845362249</v>
       </c>
       <c r="T2">
-        <v>0.04302860709747557</v>
+        <v>0.06306500845362251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.208660046356138</v>
+        <v>0.2341203333333333</v>
       </c>
       <c r="H3">
-        <v>0.208660046356138</v>
+        <v>0.702361</v>
       </c>
       <c r="I3">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="J3">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N3">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O3">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P3">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q3">
-        <v>3.137195869581746</v>
+        <v>3.544986874843334</v>
       </c>
       <c r="R3">
-        <v>3.137195869581746</v>
+        <v>31.90488187359</v>
       </c>
       <c r="S3">
-        <v>0.01269575510726232</v>
+        <v>0.01031309214012916</v>
       </c>
       <c r="T3">
-        <v>0.01269575510726232</v>
+        <v>0.01031309214012916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.208660046356138</v>
+        <v>0.2341203333333333</v>
       </c>
       <c r="H4">
-        <v>0.208660046356138</v>
+        <v>0.702361</v>
       </c>
       <c r="I4">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="J4">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N4">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O4">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P4">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q4">
-        <v>5.533163385264046</v>
+        <v>6.597072563989111</v>
       </c>
       <c r="R4">
-        <v>5.533163385264046</v>
+        <v>59.373653075902</v>
       </c>
       <c r="S4">
-        <v>0.02239187166759478</v>
+        <v>0.01919223388113238</v>
       </c>
       <c r="T4">
-        <v>0.02239187166759478</v>
+        <v>0.01919223388113238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.208660046356138</v>
+        <v>0.2341203333333333</v>
       </c>
       <c r="H5">
-        <v>0.208660046356138</v>
+        <v>0.702361</v>
       </c>
       <c r="I5">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="J5">
-        <v>0.1063161749511705</v>
+        <v>0.1153892343949327</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.3958113692385</v>
+        <v>33.50281533333334</v>
       </c>
       <c r="N5">
-        <v>33.3958113692385</v>
+        <v>100.508446</v>
       </c>
       <c r="O5">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577406</v>
       </c>
       <c r="P5">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577405</v>
       </c>
       <c r="Q5">
-        <v>6.968371548406146</v>
+        <v>7.843690293445112</v>
       </c>
       <c r="R5">
-        <v>6.968371548406146</v>
+        <v>70.59321264100601</v>
       </c>
       <c r="S5">
-        <v>0.02819994107883787</v>
+        <v>0.02281889992004868</v>
       </c>
       <c r="T5">
-        <v>0.02819994107883787</v>
+        <v>0.02281889992004868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75397683793708</v>
+        <v>1.794841333333333</v>
       </c>
       <c r="H6">
-        <v>1.75397683793708</v>
+        <v>5.384524</v>
       </c>
       <c r="I6">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="J6">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N6">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O6">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P6">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q6">
-        <v>89.37682853012845</v>
+        <v>166.1885583837729</v>
       </c>
       <c r="R6">
-        <v>89.37682853012845</v>
+        <v>1495.697025453956</v>
       </c>
       <c r="S6">
-        <v>0.3616944476704182</v>
+        <v>0.4834765193094907</v>
       </c>
       <c r="T6">
-        <v>0.3616944476704182</v>
+        <v>0.4834765193094908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.75397683793708</v>
+        <v>1.794841333333333</v>
       </c>
       <c r="H7">
-        <v>1.75397683793708</v>
+        <v>5.384524</v>
       </c>
       <c r="I7">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="J7">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N7">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O7">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P7">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q7">
-        <v>26.37097512154556</v>
+        <v>27.17700286217334</v>
       </c>
       <c r="R7">
-        <v>26.37097512154556</v>
+        <v>244.59302575956</v>
       </c>
       <c r="S7">
-        <v>0.1067193302557438</v>
+        <v>0.07906346187037268</v>
       </c>
       <c r="T7">
-        <v>0.1067193302557438</v>
+        <v>0.07906346187037268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.75397683793708</v>
+        <v>1.794841333333333</v>
       </c>
       <c r="H8">
-        <v>1.75397683793708</v>
+        <v>5.384524</v>
       </c>
       <c r="I8">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="J8">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N8">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O8">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P8">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q8">
-        <v>46.51125401223306</v>
+        <v>50.57526763379644</v>
       </c>
       <c r="R8">
-        <v>46.51125401223306</v>
+        <v>455.1774087041679</v>
       </c>
       <c r="S8">
-        <v>0.1882239793812136</v>
+        <v>0.1471338014875121</v>
       </c>
       <c r="T8">
-        <v>0.1882239793812136</v>
+        <v>0.1471338014875121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.75397683793708</v>
+        <v>1.794841333333333</v>
       </c>
       <c r="H9">
-        <v>1.75397683793708</v>
+        <v>5.384524</v>
       </c>
       <c r="I9">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="J9">
-        <v>0.8936838250488294</v>
+        <v>0.8846107656050674</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.3958113692385</v>
+        <v>33.50281533333334</v>
       </c>
       <c r="N9">
-        <v>33.3958113692385</v>
+        <v>100.508446</v>
       </c>
       <c r="O9">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577406</v>
       </c>
       <c r="P9">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577405</v>
       </c>
       <c r="Q9">
-        <v>58.57547962576013</v>
+        <v>60.13223774330045</v>
       </c>
       <c r="R9">
-        <v>58.57547962576013</v>
+        <v>541.190139689704</v>
       </c>
       <c r="S9">
-        <v>0.2370460677414539</v>
+        <v>0.1749369829376919</v>
       </c>
       <c r="T9">
-        <v>0.2370460677414539</v>
+        <v>0.1749369829376919</v>
       </c>
     </row>
   </sheetData>
